--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -391,17 +391,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>帮助中心</t>
+          <t>钱包模块</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>正东</t>
+          <t>文婷</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -413,17 +413,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>沟通管理-样式调整与mock数据</t>
+          <t>需求方个人管理-切图</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>正东</t>
+          <t>文婷</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -435,17 +435,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>沟通管理-im对接与逻辑交互</t>
+          <t>需求方个人管理-逻辑交互、mock数据</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>正东</t>
+          <t>文婷</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -457,7 +457,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>沟通管理-切图</t>
+          <t>需求方项目管理-切图</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>正东</t>
+          <t>文婷</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -479,7 +479,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>服务方项目管理-逻辑交互、mock数据</t>
+          <t>需求方项目管理-逻辑交互、mock数据</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>杨浩</t>
+          <t>文婷</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>服务方项目管理-逻辑交互、mock数据</t>
+          <t>头部尾部公用组件</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -523,7 +523,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>服务方项目管理-切图</t>
+          <t>服务方个人管理-切图</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -567,7 +567,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>服务方个人管理-切图</t>
+          <t>服务方项目管理-切图</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -589,12 +589,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>头部尾部公用组件</t>
+          <t>服务方项目管理-逻辑交互、mock数据</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -611,7 +611,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>需求方项目管理-逻辑交互、mock数据</t>
+          <t>服务方项目管理-逻辑交互、mock数据</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>文婷</t>
+          <t>杨浩</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -633,7 +633,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>需求方项目管理-切图</t>
+          <t>沟通管理-切图</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>文婷</t>
+          <t>正东</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -655,17 +655,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>需求方个人管理-逻辑交互、mock数据</t>
+          <t>沟通管理-im对接与逻辑交互</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>文婷</t>
+          <t>正东</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -677,17 +677,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>需求方个人管理-切图</t>
+          <t>沟通管理-样式调整与mock数据</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文婷</t>
+          <t>正东</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -699,17 +699,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>钱包模块</t>
+          <t>帮助中心</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>文婷</t>
+          <t>正东</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
